--- a/InvoiceProcessing-RPA/bot/invoiceReaders/SpecialityDrinks.xlsx
+++ b/InvoiceProcessing-RPA/bot/invoiceReaders/SpecialityDrinks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\github\invoiceProcessingPAM_DM_RPA\InvoiceApproval\InvoiceProcessing-RPA\testInvoices\Momentum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\github\invoiceProcessingPAM_DM_RPA\InvoiceApproval\InvoiceProcessing-RPA\bot\invoiceReaders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D052F2AA-3610-4B0A-B830-FAF1A41FD8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30FEA35-682A-4580-A467-06F84B13FCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="4905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>3894561</t>
   </si>
   <si>
-    <t>30/03/2023</t>
+    <t>XXXXXXXX</t>
   </si>
   <si>
     <t>4773.89</t>
@@ -85,7 +85,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Bombay Sapphire London Dry Gin I 40% I 70CI”
+    <t xml:space="preserve">Bombay Sapphire London Dry Gin I 40% I 70cl’
 </t>
   </si>
   <si>
@@ -116,7 +116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">L&amp;G Woodford Reserve I 43.2% I 70cl
+    <t xml:space="preserve">L&amp;G Woodford Reserve I 43.2% I ma
 </t>
   </si>
   <si>
@@ -129,7 +129,7 @@
     <t>497.88</t>
   </si>
   <si>
-    <t xml:space="preserve">RUM/BAC1
+    <t xml:space="preserve">RUMIBAC1
 </t>
   </si>
   <si>
@@ -143,7 +143,7 @@
     <t>531.00</t>
   </si>
   <si>
-    <t xml:space="preserve">VERMOIMAR1
+    <t xml:space="preserve">VERMO/MAR1
 </t>
   </si>
   <si>
@@ -178,7 +178,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cointreau I 40% I 706i
+    <t xml:space="preserve">Cointreau I 40% I ma
 </t>
   </si>
   <si>
@@ -191,7 +191,7 @@
     <t>105.96</t>
   </si>
   <si>
-    <t xml:space="preserve">LlQ/BRI/CAS1
+    <t xml:space="preserve">LlQlBRl/CAS1
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Briottet Maison Edmond Creme de Chataigne I 18% I 70clI
+    <t xml:space="preserve">Briottet Maison Edmond Creme de Chataigne I 18% I 70clE
 </t>
   </si>
   <si>
@@ -219,7 +219,7 @@
     <t>114.78</t>
   </si>
   <si>
-    <t xml:space="preserve">RUM/KRA1
+    <t xml:space="preserve">RUMIKRA1
 </t>
   </si>
   <si>
@@ -638,7 +638,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,10 +732,7 @@
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="e">
-        <f>VALUE(E6)=(C6*D6)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -753,10 +750,7 @@
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="e">
-        <f ref="F7:F16" t="shared" si="0">VALUE(E7)=(C7*D7)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -774,10 +768,7 @@
       <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -795,10 +786,7 @@
       <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -816,10 +804,7 @@
       <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -837,10 +822,7 @@
       <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -858,10 +840,7 @@
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -879,10 +858,7 @@
       <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -900,10 +876,7 @@
       <c r="E14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -921,10 +894,7 @@
       <c r="E15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -942,10 +912,7 @@
       <c r="E16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2"/>

--- a/InvoiceProcessing-RPA/bot/invoiceReaders/SpecialityDrinks.xlsx
+++ b/InvoiceProcessing-RPA/bot/invoiceReaders/SpecialityDrinks.xlsx
@@ -102,7 +102,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Grey Goose Vodka I 40% I 70cl‘
+    <t xml:space="preserve">Grey Goose Vodka I 40% I 70ci‘
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Briottet Maison Edmond Creme de Chataigne I 18% I 70clE
+    <t xml:space="preserve">Briottet Maison Edmond Creme de Chataigne I 18% I 70ciE
 </t>
   </si>
   <si>
